--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3177,28 +3177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>471.3499148929255</v>
+        <v>544.1659634704197</v>
       </c>
       <c r="AB2" t="n">
-        <v>644.9217480471451</v>
+        <v>744.5518781282149</v>
       </c>
       <c r="AC2" t="n">
-        <v>583.3713215668831</v>
+        <v>673.4928918647814</v>
       </c>
       <c r="AD2" t="n">
-        <v>471349.9148929255</v>
+        <v>544165.9634704196</v>
       </c>
       <c r="AE2" t="n">
-        <v>644921.7480471451</v>
+        <v>744551.8781282149</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.584532462415484e-06</v>
+        <v>2.678730746194654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.78549382716049</v>
       </c>
       <c r="AH2" t="n">
-        <v>583371.3215668831</v>
+        <v>673492.8918647814</v>
       </c>
     </row>
     <row r="3">
@@ -3283,28 +3283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.9468321006796</v>
+        <v>340.6048584275539</v>
       </c>
       <c r="AB3" t="n">
-        <v>409.0322442835782</v>
+        <v>466.0305937264223</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.9947809695131</v>
+        <v>421.553287939218</v>
       </c>
       <c r="AD3" t="n">
-        <v>298946.8321006796</v>
+        <v>340604.8584275539</v>
       </c>
       <c r="AE3" t="n">
-        <v>409032.2442835782</v>
+        <v>466030.5937264223</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.197317082463341e-06</v>
+        <v>3.714673550430484e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.220679012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>369994.7809695131</v>
+        <v>421553.287939218</v>
       </c>
     </row>
     <row r="4">
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.7472097955293</v>
+        <v>298.3198952678352</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.2928593295627</v>
+        <v>408.1744416503794</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.7659618778787</v>
+        <v>369.2188458156934</v>
       </c>
       <c r="AD4" t="n">
-        <v>256747.2097955293</v>
+        <v>298319.8952678352</v>
       </c>
       <c r="AE4" t="n">
-        <v>351292.8593295627</v>
+        <v>408174.4416503794</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.434962814869627e-06</v>
+        <v>4.116425452141757e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.32175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>317765.9618778788</v>
+        <v>369218.8458156934</v>
       </c>
     </row>
     <row r="5">
@@ -3495,28 +3495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>230.9964883802712</v>
+        <v>272.6544251985974</v>
       </c>
       <c r="AB5" t="n">
-        <v>316.0595862475732</v>
+        <v>373.0578132210212</v>
       </c>
       <c r="AC5" t="n">
-        <v>285.8953029286139</v>
+        <v>337.4536991171356</v>
       </c>
       <c r="AD5" t="n">
-        <v>230996.4883802712</v>
+        <v>272654.4251985974</v>
       </c>
       <c r="AE5" t="n">
-        <v>316059.5862475733</v>
+        <v>373057.8132210212</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.561584662567209e-06</v>
+        <v>4.330485968169575e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.908950617283951</v>
       </c>
       <c r="AH5" t="n">
-        <v>285895.3029286139</v>
+        <v>337453.6991171355</v>
       </c>
     </row>
     <row r="6">
@@ -3601,28 +3601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>221.3675556547388</v>
+        <v>263.0254924730648</v>
       </c>
       <c r="AB6" t="n">
-        <v>302.8848556939754</v>
+        <v>359.8830826674165</v>
       </c>
       <c r="AC6" t="n">
-        <v>273.9779501681967</v>
+        <v>325.5363463567164</v>
       </c>
       <c r="AD6" t="n">
-        <v>221367.5556547388</v>
+        <v>263025.4924730648</v>
       </c>
       <c r="AE6" t="n">
-        <v>302884.8556939754</v>
+        <v>359883.0826674165</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.640834918965239e-06</v>
+        <v>4.464462458707102e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.673611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>273977.9501681967</v>
+        <v>325536.3463567164</v>
       </c>
     </row>
     <row r="7">
@@ -3707,28 +3707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>213.4107251154973</v>
+        <v>255.0686619338201</v>
       </c>
       <c r="AB7" t="n">
-        <v>291.9979691196017</v>
+        <v>348.996196092868</v>
       </c>
       <c r="AC7" t="n">
-        <v>264.1300927686365</v>
+        <v>315.6884889571065</v>
       </c>
       <c r="AD7" t="n">
-        <v>213410.7251154973</v>
+        <v>255068.6619338201</v>
       </c>
       <c r="AE7" t="n">
-        <v>291997.9691196018</v>
+        <v>348996.196092868</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.698447597075669e-06</v>
+        <v>4.561859549575006e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.507716049382716</v>
       </c>
       <c r="AH7" t="n">
-        <v>264130.0927686365</v>
+        <v>315688.4889571065</v>
       </c>
     </row>
     <row r="8">
@@ -3813,28 +3813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>207.3971326694173</v>
+        <v>248.8844772871478</v>
       </c>
       <c r="AB8" t="n">
-        <v>283.7699066339044</v>
+        <v>340.534721832324</v>
       </c>
       <c r="AC8" t="n">
-        <v>256.6873050184133</v>
+        <v>308.0345659242323</v>
       </c>
       <c r="AD8" t="n">
-        <v>207397.1326694173</v>
+        <v>248884.4772871478</v>
       </c>
       <c r="AE8" t="n">
-        <v>283769.9066339044</v>
+        <v>340534.7218323239</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.737258690169204e-06</v>
+        <v>4.627471628108625e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.403549382716051</v>
       </c>
       <c r="AH8" t="n">
-        <v>256687.3050184133</v>
+        <v>308034.5659242322</v>
       </c>
     </row>
     <row r="9">
@@ -3919,28 +3919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>201.8349397006147</v>
+        <v>243.3222843183452</v>
       </c>
       <c r="AB9" t="n">
-        <v>276.1594688273573</v>
+        <v>332.9242840257767</v>
       </c>
       <c r="AC9" t="n">
-        <v>249.8031967148041</v>
+        <v>301.1504576206229</v>
       </c>
       <c r="AD9" t="n">
-        <v>201834.9397006147</v>
+        <v>243322.2843183452</v>
       </c>
       <c r="AE9" t="n">
-        <v>276159.4688273573</v>
+        <v>332924.2840257767</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.764725810179919e-06</v>
+        <v>4.673906157300891e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.330246913580248</v>
       </c>
       <c r="AH9" t="n">
-        <v>249803.1967148041</v>
+        <v>301150.4576206229</v>
       </c>
     </row>
     <row r="10">
@@ -4025,28 +4025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>200.6842645723483</v>
+        <v>242.1716091900789</v>
       </c>
       <c r="AB10" t="n">
-        <v>274.5850643526601</v>
+        <v>331.3498795510796</v>
       </c>
       <c r="AC10" t="n">
-        <v>248.379051193481</v>
+        <v>299.7263120992998</v>
       </c>
       <c r="AD10" t="n">
-        <v>200684.2645723483</v>
+        <v>242171.6091900789</v>
       </c>
       <c r="AE10" t="n">
-        <v>274585.0643526601</v>
+        <v>331349.8795510796</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.772603569265211e-06</v>
+        <v>4.687223899899055e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.3070987654321</v>
       </c>
       <c r="AH10" t="n">
-        <v>248379.051193481</v>
+        <v>299726.3120992999</v>
       </c>
     </row>
     <row r="11">
@@ -4131,28 +4131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>201.2274516393923</v>
+        <v>242.7147962571229</v>
       </c>
       <c r="AB11" t="n">
-        <v>275.3282768615115</v>
+        <v>332.0930920599309</v>
       </c>
       <c r="AC11" t="n">
-        <v>249.0513325435931</v>
+        <v>300.398593449412</v>
       </c>
       <c r="AD11" t="n">
-        <v>201227.4516393923</v>
+        <v>242714.7962571229</v>
       </c>
       <c r="AE11" t="n">
-        <v>275328.2768615115</v>
+        <v>332093.092059931</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.772761124446917e-06</v>
+        <v>4.687490254751018e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.3070987654321</v>
       </c>
       <c r="AH11" t="n">
-        <v>249051.3325435931</v>
+        <v>300398.593449412</v>
       </c>
     </row>
   </sheetData>
@@ -4428,28 +4428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>367.0144197937782</v>
+        <v>417.4673485216298</v>
       </c>
       <c r="AB2" t="n">
-        <v>502.1653206953085</v>
+        <v>571.1972436068797</v>
       </c>
       <c r="AC2" t="n">
-        <v>454.2393672816016</v>
+        <v>516.6829803574047</v>
       </c>
       <c r="AD2" t="n">
-        <v>367014.4197937782</v>
+        <v>417467.3485216298</v>
       </c>
       <c r="AE2" t="n">
-        <v>502165.3206953086</v>
+        <v>571197.2436068797</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.8737716332171e-06</v>
+        <v>3.244980864482286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.18441358024691</v>
       </c>
       <c r="AH2" t="n">
-        <v>454239.3672816016</v>
+        <v>516682.9803574048</v>
       </c>
     </row>
     <row r="3">
@@ -4534,28 +4534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.5770298829177</v>
+        <v>296.9445282476498</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.3775704964627</v>
+        <v>406.2926038164513</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.178728680775</v>
+        <v>367.5166079434592</v>
       </c>
       <c r="AD3" t="n">
-        <v>246577.0298829176</v>
+        <v>296944.5282476498</v>
       </c>
       <c r="AE3" t="n">
-        <v>337377.5704964628</v>
+        <v>406292.6038164513</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.44178701276666e-06</v>
+        <v>4.22866479089831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.584104938271604</v>
       </c>
       <c r="AH3" t="n">
-        <v>305178.728680775</v>
+        <v>367516.6079434592</v>
       </c>
     </row>
     <row r="4">
@@ -4640,28 +4640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>212.9199313119874</v>
+        <v>253.2822026874273</v>
       </c>
       <c r="AB4" t="n">
-        <v>291.3264433853453</v>
+        <v>346.5518837389351</v>
       </c>
       <c r="AC4" t="n">
-        <v>263.5226565079651</v>
+        <v>313.4774583436182</v>
       </c>
       <c r="AD4" t="n">
-        <v>212919.9313119874</v>
+        <v>253282.2026874273</v>
       </c>
       <c r="AE4" t="n">
-        <v>291326.4433853453</v>
+        <v>346551.8837389351</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.656823346794127e-06</v>
+        <v>4.601062780449208e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.889660493827161</v>
       </c>
       <c r="AH4" t="n">
-        <v>263522.6565079651</v>
+        <v>313477.4583436182</v>
       </c>
     </row>
     <row r="5">
@@ -4746,28 +4746,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.4073063328796</v>
+        <v>241.7695777083195</v>
       </c>
       <c r="AB5" t="n">
-        <v>275.5743619877696</v>
+        <v>330.7998023413595</v>
       </c>
       <c r="AC5" t="n">
-        <v>249.2739316507839</v>
+        <v>299.2287334864371</v>
       </c>
       <c r="AD5" t="n">
-        <v>201407.3063328796</v>
+        <v>241769.5777083195</v>
       </c>
       <c r="AE5" t="n">
-        <v>275574.3619877697</v>
+        <v>330799.8023413595</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.761842354796929e-06</v>
+        <v>4.782933754123256e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.588734567901235</v>
       </c>
       <c r="AH5" t="n">
-        <v>249273.9316507839</v>
+        <v>299228.7334864371</v>
       </c>
     </row>
     <row r="6">
@@ -4852,28 +4852,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>192.1173837427289</v>
+        <v>232.3090629175767</v>
       </c>
       <c r="AB6" t="n">
-        <v>262.8634800574725</v>
+        <v>317.8555086362155</v>
       </c>
       <c r="AC6" t="n">
-        <v>237.7761584520755</v>
+        <v>287.5198250050776</v>
       </c>
       <c r="AD6" t="n">
-        <v>192117.3837427289</v>
+        <v>232309.0629175767</v>
       </c>
       <c r="AE6" t="n">
-        <v>262863.4800574725</v>
+        <v>317855.5086362155</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.832633750258725e-06</v>
+        <v>4.905529656191174e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.399691358024692</v>
       </c>
       <c r="AH6" t="n">
-        <v>237776.1584520755</v>
+        <v>287519.8250050776</v>
       </c>
     </row>
     <row r="7">
@@ -4958,28 +4958,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>186.0155380415514</v>
+        <v>226.2072172163992</v>
       </c>
       <c r="AB7" t="n">
-        <v>254.514665574692</v>
+        <v>309.506694153435</v>
       </c>
       <c r="AC7" t="n">
-        <v>230.2241431058941</v>
+        <v>279.9678096588963</v>
       </c>
       <c r="AD7" t="n">
-        <v>186015.5380415514</v>
+        <v>226207.2172163991</v>
       </c>
       <c r="AE7" t="n">
-        <v>254514.665574692</v>
+        <v>309506.6941534351</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.876586351124875e-06</v>
+        <v>4.981646375126665e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.287808641975309</v>
       </c>
       <c r="AH7" t="n">
-        <v>230224.1431058942</v>
+        <v>279967.8096588963</v>
       </c>
     </row>
     <row r="8">
@@ -5064,28 +5064,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>186.4645171466278</v>
+        <v>226.6561963214756</v>
       </c>
       <c r="AB8" t="n">
-        <v>255.1289785938174</v>
+        <v>310.1210071725604</v>
       </c>
       <c r="AC8" t="n">
-        <v>230.7798269526682</v>
+        <v>280.5234935056702</v>
       </c>
       <c r="AD8" t="n">
-        <v>186464.5171466278</v>
+        <v>226656.1963214756</v>
       </c>
       <c r="AE8" t="n">
-        <v>255128.9785938174</v>
+        <v>310121.0071725604</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.876803669299738e-06</v>
+        <v>4.982022724787657e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.287808641975309</v>
       </c>
       <c r="AH8" t="n">
-        <v>230779.8269526682</v>
+        <v>280523.4935056702</v>
       </c>
     </row>
   </sheetData>
@@ -5361,28 +5361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.8538194837638</v>
+        <v>220.2300305886042</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.5569068756365</v>
+        <v>301.3284437144267</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.5486687458351</v>
+        <v>272.5700799635378</v>
       </c>
       <c r="AD2" t="n">
-        <v>183853.8194837638</v>
+        <v>220230.0305886042</v>
       </c>
       <c r="AE2" t="n">
-        <v>251556.9068756365</v>
+        <v>301328.4437144267</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.800579660389152e-06</v>
+        <v>5.29929937340796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.352623456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>227548.6687458351</v>
+        <v>272570.0799635377</v>
       </c>
     </row>
     <row r="3">
@@ -5467,28 +5467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.7868053176697</v>
+        <v>186.0776755679385</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.9449151630165</v>
+        <v>254.599684879609</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.3852601019115</v>
+        <v>230.3010482876753</v>
       </c>
       <c r="AD3" t="n">
-        <v>149786.8053176697</v>
+        <v>186077.6755679385</v>
       </c>
       <c r="AE3" t="n">
-        <v>204944.9151630165</v>
+        <v>254599.684879609</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.143831934116821e-06</v>
+        <v>5.948806539661226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.438271604938273</v>
       </c>
       <c r="AH3" t="n">
-        <v>185385.2601019116</v>
+        <v>230301.0482876753</v>
       </c>
     </row>
     <row r="4">
@@ -5573,28 +5573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.4695564463852</v>
+        <v>186.7604266966539</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.8790853781784</v>
+        <v>255.533855094771</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.2302744228549</v>
+        <v>231.1460626086186</v>
       </c>
       <c r="AD4" t="n">
-        <v>150469.5564463852</v>
+        <v>186760.4266966539</v>
       </c>
       <c r="AE4" t="n">
-        <v>205879.0853781785</v>
+        <v>255533.855094771</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.143225695554956e-06</v>
+        <v>5.947659405845872e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.44212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>186230.2744228549</v>
+        <v>231146.0626086186</v>
       </c>
     </row>
   </sheetData>
@@ -5870,28 +5870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.7585815852666</v>
+        <v>277.7451942097105</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.0482687269124</v>
+        <v>380.0232279709042</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.7398023783502</v>
+        <v>343.7543444593107</v>
       </c>
       <c r="AD2" t="n">
-        <v>239758.5815852666</v>
+        <v>277745.1942097105</v>
       </c>
       <c r="AE2" t="n">
-        <v>328048.2687269124</v>
+        <v>380023.2279709042</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.424793206302104e-06</v>
+        <v>4.417446617951129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.228395061728396</v>
       </c>
       <c r="AH2" t="n">
-        <v>296739.8023783502</v>
+        <v>343754.3444593107</v>
       </c>
     </row>
     <row r="3">
@@ -5976,28 +5976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.5471873057701</v>
+        <v>215.5337104216594</v>
       </c>
       <c r="AB3" t="n">
-        <v>242.9278945007345</v>
+        <v>294.9027312749928</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.7431972010962</v>
+        <v>266.7576285007773</v>
       </c>
       <c r="AD3" t="n">
-        <v>177547.1873057701</v>
+        <v>215533.7104216594</v>
       </c>
       <c r="AE3" t="n">
-        <v>242927.8945007345</v>
+        <v>294902.7312749928</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.894568254044146e-06</v>
+        <v>5.273274731644452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.731481481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>219743.1972010962</v>
+        <v>266757.6285007773</v>
       </c>
     </row>
     <row r="4">
@@ -6082,28 +6082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.0867954338595</v>
+        <v>200.9027263491567</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.1425483941312</v>
+        <v>274.8839733935426</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.8461367579931</v>
+        <v>248.6494327750232</v>
       </c>
       <c r="AD4" t="n">
-        <v>163086.7954338595</v>
+        <v>200902.7263491567</v>
       </c>
       <c r="AE4" t="n">
-        <v>223142.5483941312</v>
+        <v>274883.9733935426</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.049362032121122e-06</v>
+        <v>5.555275377995993e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.337962962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>201846.1367579931</v>
+        <v>248649.4327750232</v>
       </c>
     </row>
     <row r="5">
@@ -6188,28 +6188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.4637570013301</v>
+        <v>201.2796879166272</v>
       </c>
       <c r="AB5" t="n">
-        <v>223.6583238411147</v>
+        <v>275.3997488405261</v>
       </c>
       <c r="AC5" t="n">
-        <v>202.312687320212</v>
+        <v>249.1159833372422</v>
       </c>
       <c r="AD5" t="n">
-        <v>163463.7570013301</v>
+        <v>201279.6879166272</v>
       </c>
       <c r="AE5" t="n">
-        <v>223658.3238411147</v>
+        <v>275399.7488405261</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.053479813403799e-06</v>
+        <v>5.562777081214786e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>202312.687320212</v>
+        <v>249115.9833372422</v>
       </c>
     </row>
   </sheetData>
@@ -6485,28 +6485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.3859374104073</v>
+        <v>178.5965372786761</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.1869653059422</v>
+        <v>244.3636614277174</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.4631566873338</v>
+        <v>221.0419365476798</v>
       </c>
       <c r="AD2" t="n">
-        <v>143385.9374104073</v>
+        <v>178596.5372786761</v>
       </c>
       <c r="AE2" t="n">
-        <v>196186.9653059422</v>
+        <v>244363.6614277174</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.126237669009793e-06</v>
+        <v>6.126418556020194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.770061728395062</v>
       </c>
       <c r="AH2" t="n">
-        <v>177463.1566873338</v>
+        <v>221041.9365476798</v>
       </c>
     </row>
     <row r="3">
@@ -6591,28 +6591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.6169790119399</v>
+        <v>175.8275788802087</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.3983542673379</v>
+        <v>240.5750503891132</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.0361253689038</v>
+        <v>217.6149052292497</v>
       </c>
       <c r="AD3" t="n">
-        <v>140616.9790119399</v>
+        <v>175827.5788802087</v>
       </c>
       <c r="AE3" t="n">
-        <v>192398.3542673379</v>
+        <v>240575.0503891132</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.179378420493002e-06</v>
+        <v>6.230557306952302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.638888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>174036.1253689037</v>
+        <v>217614.9052292497</v>
       </c>
     </row>
   </sheetData>
@@ -6888,28 +6888,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.0445606013362</v>
+        <v>450.0987995414329</v>
       </c>
       <c r="AB2" t="n">
-        <v>532.3079312494285</v>
+        <v>615.8450344901913</v>
       </c>
       <c r="AC2" t="n">
-        <v>481.5052093898562</v>
+        <v>557.0696487423813</v>
       </c>
       <c r="AD2" t="n">
-        <v>389044.5606013362</v>
+        <v>450098.7995414329</v>
       </c>
       <c r="AE2" t="n">
-        <v>532307.9312494285</v>
+        <v>615845.0344901914</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.794483530903784e-06</v>
+        <v>3.087375191710127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.57407407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>481505.2093898562</v>
+        <v>557069.6487423814</v>
       </c>
     </row>
     <row r="3">
@@ -6994,28 +6994,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.368670301493</v>
+        <v>308.161861897005</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.1431690107244</v>
+        <v>421.6406545893332</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.5351191964878</v>
+        <v>381.3998622917019</v>
       </c>
       <c r="AD3" t="n">
-        <v>257368.670301493</v>
+        <v>308161.861897005</v>
       </c>
       <c r="AE3" t="n">
-        <v>352143.1690107243</v>
+        <v>421640.6545893332</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.371556784953613e-06</v>
+        <v>4.080218880532148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.757716049382715</v>
       </c>
       <c r="AH3" t="n">
-        <v>318535.1191964878</v>
+        <v>381399.862291702</v>
       </c>
     </row>
     <row r="4">
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.0810061495524</v>
+        <v>271.7888568904922</v>
       </c>
       <c r="AB4" t="n">
-        <v>302.4927860193075</v>
+        <v>371.8735044756931</v>
       </c>
       <c r="AC4" t="n">
-        <v>273.6232990730058</v>
+        <v>336.3824191362737</v>
       </c>
       <c r="AD4" t="n">
-        <v>221081.0061495524</v>
+        <v>271788.8568904923</v>
       </c>
       <c r="AE4" t="n">
-        <v>302492.7860193074</v>
+        <v>371873.5044756931</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.599952450532954e-06</v>
+        <v>4.473169330987738e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.98996913580247</v>
       </c>
       <c r="AH4" t="n">
-        <v>273623.2990730058</v>
+        <v>336382.4191362737</v>
       </c>
     </row>
     <row r="5">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.8947287812741</v>
+        <v>248.5975547413379</v>
       </c>
       <c r="AB5" t="n">
-        <v>284.4507395865377</v>
+        <v>340.1421417470175</v>
       </c>
       <c r="AC5" t="n">
-        <v>257.3031602296026</v>
+        <v>307.6794531312778</v>
       </c>
       <c r="AD5" t="n">
-        <v>207894.7287812741</v>
+        <v>248597.5547413379</v>
       </c>
       <c r="AE5" t="n">
-        <v>284450.7395865378</v>
+        <v>340142.1417470176</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.718349920737803e-06</v>
+        <v>4.676869953465777e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.642746913580246</v>
       </c>
       <c r="AH5" t="n">
-        <v>257303.1602296026</v>
+        <v>307679.4531312778</v>
       </c>
     </row>
     <row r="6">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>199.2210409680205</v>
+        <v>239.7532747274921</v>
       </c>
       <c r="AB6" t="n">
-        <v>272.5830172643502</v>
+        <v>328.0410076499833</v>
       </c>
       <c r="AC6" t="n">
-        <v>246.568076669388</v>
+        <v>296.7332342884123</v>
       </c>
       <c r="AD6" t="n">
-        <v>199221.0409680205</v>
+        <v>239753.2747274921</v>
       </c>
       <c r="AE6" t="n">
-        <v>272583.0172643503</v>
+        <v>328041.0076499833</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.785113387338082e-06</v>
+        <v>4.791735243085045e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.457561728395062</v>
       </c>
       <c r="AH6" t="n">
-        <v>246568.076669388</v>
+        <v>296733.2342884123</v>
       </c>
     </row>
     <row r="7">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>192.1143173557295</v>
+        <v>232.6465511152011</v>
       </c>
       <c r="AB7" t="n">
-        <v>262.8592844915005</v>
+        <v>318.3172748771335</v>
       </c>
       <c r="AC7" t="n">
-        <v>237.7723633050313</v>
+        <v>287.9375209240555</v>
       </c>
       <c r="AD7" t="n">
-        <v>192114.3173557295</v>
+        <v>232646.5511152011</v>
       </c>
       <c r="AE7" t="n">
-        <v>262859.2844915005</v>
+        <v>318317.2748771334</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.832224704495537e-06</v>
+        <v>4.872789378905092e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.334104938271606</v>
       </c>
       <c r="AH7" t="n">
-        <v>237772.3633050313</v>
+        <v>287937.5209240555</v>
       </c>
     </row>
     <row r="8">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>189.6609848750788</v>
+        <v>230.1932186345504</v>
       </c>
       <c r="AB8" t="n">
-        <v>259.5025267580855</v>
+        <v>314.9605171437186</v>
       </c>
       <c r="AC8" t="n">
-        <v>234.7359698184534</v>
+        <v>284.9011274374776</v>
       </c>
       <c r="AD8" t="n">
-        <v>189660.9848750788</v>
+        <v>230193.2186345504</v>
       </c>
       <c r="AE8" t="n">
-        <v>259502.5267580856</v>
+        <v>314960.5171437185</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.848161790071087e-06</v>
+        <v>4.900208835136788e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>234735.9698184534</v>
+        <v>284901.1274374776</v>
       </c>
     </row>
   </sheetData>
@@ -7821,28 +7821,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.5736755092538</v>
+        <v>169.0435774409384</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.1296398032329</v>
+        <v>231.2928803308875</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.5565654080366</v>
+        <v>209.2186124537706</v>
       </c>
       <c r="AD2" t="n">
-        <v>134573.6755092538</v>
+        <v>169043.5774409384</v>
       </c>
       <c r="AE2" t="n">
-        <v>184129.6398032329</v>
+        <v>231292.8803308875</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.176911318931166e-06</v>
+        <v>6.36862824105283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.824074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>166556.5654080366</v>
+        <v>209218.6124537706</v>
       </c>
     </row>
     <row r="3">
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.0793183064561</v>
+        <v>169.5492202381408</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.8214825857506</v>
+        <v>231.9847231134052</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.1823796863985</v>
+        <v>209.8444267321325</v>
       </c>
       <c r="AD3" t="n">
-        <v>135079.3183064561</v>
+        <v>169549.2202381408</v>
       </c>
       <c r="AE3" t="n">
-        <v>184821.4825857506</v>
+        <v>231984.7231134052</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.184579103430452e-06</v>
+        <v>6.383999544814904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.804783950617284</v>
       </c>
       <c r="AH3" t="n">
-        <v>167182.3796863985</v>
+        <v>209844.4267321326</v>
       </c>
     </row>
   </sheetData>
@@ -8224,28 +8224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.4281000789659</v>
+        <v>348.4141074545201</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.6907363635143</v>
+        <v>476.7155527648694</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.5904274895396</v>
+        <v>431.21848948347</v>
       </c>
       <c r="AD2" t="n">
-        <v>299428.1000789659</v>
+        <v>348414.1074545201</v>
       </c>
       <c r="AE2" t="n">
-        <v>409690.7363635143</v>
+        <v>476715.5527648694</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.127433936927412e-06</v>
+        <v>3.767843585318981e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.15046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>370590.4274895396</v>
+        <v>431218.48948347</v>
       </c>
     </row>
     <row r="3">
@@ -8330,28 +8330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.0912495914447</v>
+        <v>256.2630052226834</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.0338250808707</v>
+        <v>350.6303492713972</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.6853337048318</v>
+        <v>317.1666808498258</v>
       </c>
       <c r="AD3" t="n">
-        <v>217091.2495914447</v>
+        <v>256263.0052226834</v>
       </c>
       <c r="AE3" t="n">
-        <v>297033.8250808707</v>
+        <v>350630.3492713972</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.648461013834225e-06</v>
+        <v>4.69062125442778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.155864197530866</v>
       </c>
       <c r="AH3" t="n">
-        <v>268685.3337048318</v>
+        <v>317166.6808498258</v>
       </c>
     </row>
     <row r="4">
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.0671833404272</v>
+        <v>227.3241903176864</v>
       </c>
       <c r="AB4" t="n">
-        <v>257.3218171848151</v>
+        <v>311.034986027991</v>
       </c>
       <c r="AC4" t="n">
-        <v>232.76338410621</v>
+        <v>281.3502435019162</v>
       </c>
       <c r="AD4" t="n">
-        <v>188067.1833404272</v>
+        <v>227324.1903176864</v>
       </c>
       <c r="AE4" t="n">
-        <v>257321.8171848151</v>
+        <v>311034.9860279909</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.845945277620993e-06</v>
+        <v>5.040380560037562e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.588734567901235</v>
       </c>
       <c r="AH4" t="n">
-        <v>232763.38410621</v>
+        <v>281350.2435019162</v>
       </c>
     </row>
     <row r="5">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.1220744894271</v>
+        <v>216.2084892660942</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.3462363907606</v>
+        <v>295.8259934590897</v>
       </c>
       <c r="AC5" t="n">
-        <v>219.2170517247757</v>
+        <v>267.5927758378309</v>
       </c>
       <c r="AD5" t="n">
-        <v>177122.0744894271</v>
+        <v>216208.4892660942</v>
       </c>
       <c r="AE5" t="n">
-        <v>242346.2363907606</v>
+        <v>295825.9934590897</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.941440786130127e-06</v>
+        <v>5.209510201582428e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.341820987654322</v>
       </c>
       <c r="AH5" t="n">
-        <v>219217.0517247757</v>
+        <v>267592.7758378308</v>
       </c>
     </row>
     <row r="6">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>174.5203929248661</v>
+        <v>213.6068077015331</v>
       </c>
       <c r="AB6" t="n">
-        <v>238.78650089604</v>
+        <v>292.266257964369</v>
       </c>
       <c r="AC6" t="n">
-        <v>215.9970523895499</v>
+        <v>264.3727765026051</v>
       </c>
       <c r="AD6" t="n">
-        <v>174520.3929248661</v>
+        <v>213606.8077015331</v>
       </c>
       <c r="AE6" t="n">
-        <v>238786.50089604</v>
+        <v>292266.257964369</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.966518152960193e-06</v>
+        <v>5.253924081659861e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.280092592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>215997.0523895499</v>
+        <v>264372.7765026051</v>
       </c>
     </row>
     <row r="7">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>175.1378654854105</v>
+        <v>214.2242802620776</v>
       </c>
       <c r="AB7" t="n">
-        <v>239.6313540943433</v>
+        <v>293.1111111626724</v>
       </c>
       <c r="AC7" t="n">
-        <v>216.7612739843663</v>
+        <v>265.1369980974216</v>
       </c>
       <c r="AD7" t="n">
-        <v>175137.8654854106</v>
+        <v>214224.2802620776</v>
       </c>
       <c r="AE7" t="n">
-        <v>239631.3540943433</v>
+        <v>293111.1111626724</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.96590241404249e-06</v>
+        <v>5.252833562282959e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.280092592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>216761.2739843663</v>
+        <v>265136.9980974215</v>
       </c>
     </row>
   </sheetData>
@@ -9051,28 +9051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.4409817286021</v>
+        <v>397.3687910369843</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.7016380465275</v>
+        <v>543.6975105706107</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.6374817136849</v>
+        <v>491.8077832459995</v>
       </c>
       <c r="AD2" t="n">
-        <v>337440.9817286021</v>
+        <v>397368.7910369843</v>
       </c>
       <c r="AE2" t="n">
-        <v>461701.6380465275</v>
+        <v>543697.5105706106</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.951296323813062e-06</v>
+        <v>3.402890403087517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.84490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>417637.4817136849</v>
+        <v>491807.7832459995</v>
       </c>
     </row>
     <row r="3">
@@ -9157,28 +9157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.9198858532573</v>
+        <v>275.8434012825422</v>
       </c>
       <c r="AB3" t="n">
-        <v>322.7959958750764</v>
+        <v>377.4211109867701</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.9887990758805</v>
+        <v>341.4005698680481</v>
       </c>
       <c r="AD3" t="n">
-        <v>235919.8858532573</v>
+        <v>275843.4012825422</v>
       </c>
       <c r="AE3" t="n">
-        <v>322795.9958750764</v>
+        <v>377421.1109867701</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.5132990623063e-06</v>
+        <v>4.382974105387753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.418209876543209</v>
       </c>
       <c r="AH3" t="n">
-        <v>291988.7990758805</v>
+        <v>341400.5698680481</v>
       </c>
     </row>
     <row r="4">
@@ -9263,28 +9263,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>205.0781379049854</v>
+        <v>245.0869046802874</v>
       </c>
       <c r="AB4" t="n">
-        <v>280.5969556903817</v>
+        <v>335.3387154545408</v>
       </c>
       <c r="AC4" t="n">
-        <v>253.8171760596748</v>
+        <v>303.3344591025023</v>
       </c>
       <c r="AD4" t="n">
-        <v>205078.1379049854</v>
+        <v>245086.9046802874</v>
       </c>
       <c r="AE4" t="n">
-        <v>280596.9556903817</v>
+        <v>335338.7154545408</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.713046693182886e-06</v>
+        <v>4.731316531832317e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.800925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>253817.1760596748</v>
+        <v>303334.4591025023</v>
       </c>
     </row>
     <row r="5">
@@ -9369,28 +9369,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.2372506772917</v>
+        <v>233.0754252520016</v>
       </c>
       <c r="AB5" t="n">
-        <v>264.3957314023829</v>
+        <v>318.9040793916951</v>
       </c>
       <c r="AC5" t="n">
-        <v>239.1621738791563</v>
+        <v>288.4683216393329</v>
       </c>
       <c r="AD5" t="n">
-        <v>193237.2506772917</v>
+        <v>233075.4252520016</v>
       </c>
       <c r="AE5" t="n">
-        <v>264395.7314023829</v>
+        <v>318904.0793916951</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.821147346795668e-06</v>
+        <v>4.919834632469945e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>239162.1738791564</v>
+        <v>288468.3216393329</v>
       </c>
     </row>
     <row r="6">
@@ -9475,28 +9475,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>184.3973294572077</v>
+        <v>224.2355040319176</v>
       </c>
       <c r="AB6" t="n">
-        <v>252.30056119927</v>
+        <v>306.8089091885822</v>
       </c>
       <c r="AC6" t="n">
-        <v>228.2213497445467</v>
+        <v>277.5274975047232</v>
       </c>
       <c r="AD6" t="n">
-        <v>184397.3294572078</v>
+        <v>224235.5040319176</v>
       </c>
       <c r="AE6" t="n">
-        <v>252300.56119927</v>
+        <v>306808.9091885822</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.890527015400522e-06</v>
+        <v>5.04082671633935e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.318672839506173</v>
       </c>
       <c r="AH6" t="n">
-        <v>228221.3497445467</v>
+        <v>277527.4975047231</v>
       </c>
     </row>
     <row r="7">
@@ -9581,28 +9581,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>182.268762675338</v>
+        <v>222.1069372500479</v>
       </c>
       <c r="AB7" t="n">
-        <v>249.3881622225784</v>
+        <v>303.8965102118906</v>
       </c>
       <c r="AC7" t="n">
-        <v>225.5869060386119</v>
+        <v>274.8930537987885</v>
       </c>
       <c r="AD7" t="n">
-        <v>182268.762675338</v>
+        <v>222106.9372500479</v>
       </c>
       <c r="AE7" t="n">
-        <v>249388.1622225784</v>
+        <v>303896.5102118906</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.905828934405071e-06</v>
+        <v>5.067511926931891e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.280092592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>225586.906038612</v>
+        <v>274893.0537987885</v>
       </c>
     </row>
   </sheetData>
@@ -9878,28 +9878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>445.4180251858485</v>
+        <v>507.3573257829241</v>
       </c>
       <c r="AB2" t="n">
-        <v>609.4405925156904</v>
+        <v>694.1886761616964</v>
       </c>
       <c r="AC2" t="n">
-        <v>551.2764377212359</v>
+        <v>627.9362832087497</v>
       </c>
       <c r="AD2" t="n">
-        <v>445418.0251858485</v>
+        <v>507357.3257829241</v>
       </c>
       <c r="AE2" t="n">
-        <v>609440.5925156904</v>
+        <v>694188.6761616964</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.652837349204315e-06</v>
+        <v>2.809713949573144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.35725308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>551276.4377212359</v>
+        <v>627936.2832087497</v>
       </c>
     </row>
     <row r="3">
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>287.574062361127</v>
+        <v>328.9238531650755</v>
       </c>
       <c r="AB3" t="n">
-        <v>393.4715189947319</v>
+        <v>450.0481269967172</v>
       </c>
       <c r="AC3" t="n">
-        <v>355.9191494626192</v>
+        <v>407.0961654026631</v>
       </c>
       <c r="AD3" t="n">
-        <v>287574.062361127</v>
+        <v>328923.8531650755</v>
       </c>
       <c r="AE3" t="n">
-        <v>393471.5189947319</v>
+        <v>450048.1269967172</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.258662428452735e-06</v>
+        <v>3.839576432403042e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.043209876543211</v>
       </c>
       <c r="AH3" t="n">
-        <v>355919.1494626192</v>
+        <v>407096.1654026631</v>
       </c>
     </row>
     <row r="4">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.5436975015863</v>
+        <v>289.8081474509663</v>
       </c>
       <c r="AB4" t="n">
-        <v>340.0684518955757</v>
+        <v>396.528292775528</v>
       </c>
       <c r="AC4" t="n">
-        <v>307.6127961358333</v>
+        <v>358.6841890439851</v>
       </c>
       <c r="AD4" t="n">
-        <v>248543.6975015863</v>
+        <v>289808.1474509663</v>
       </c>
       <c r="AE4" t="n">
-        <v>340068.4518955757</v>
+        <v>396528.292775528</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.485185105323059e-06</v>
+        <v>4.224649969979862e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.217592592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>307612.7961358333</v>
+        <v>358684.1890439851</v>
       </c>
     </row>
     <row r="5">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>223.7771996602287</v>
+        <v>265.1269009556289</v>
       </c>
       <c r="AB5" t="n">
-        <v>306.1818369282758</v>
+        <v>362.7583224608599</v>
       </c>
       <c r="AC5" t="n">
-        <v>276.9602721408388</v>
+        <v>328.137177299698</v>
       </c>
       <c r="AD5" t="n">
-        <v>223777.1996602287</v>
+        <v>265126.9009556288</v>
       </c>
       <c r="AE5" t="n">
-        <v>306181.8369282758</v>
+        <v>362758.3224608599</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.606254832362655e-06</v>
+        <v>4.430460481884088e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.835648148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>276960.2721408388</v>
+        <v>328137.1772996979</v>
       </c>
     </row>
     <row r="6">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>214.2481458781414</v>
+        <v>255.5978471735384</v>
       </c>
       <c r="AB6" t="n">
-        <v>293.1437651514476</v>
+        <v>349.7202506838553</v>
       </c>
       <c r="AC6" t="n">
-        <v>265.1665356353382</v>
+        <v>316.3434407941472</v>
       </c>
       <c r="AD6" t="n">
-        <v>214248.1458781414</v>
+        <v>255597.8471735384</v>
       </c>
       <c r="AE6" t="n">
-        <v>293143.7651514476</v>
+        <v>349720.2506838553</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.684762224229608e-06</v>
+        <v>4.56391784487227e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.608024691358024</v>
       </c>
       <c r="AH6" t="n">
-        <v>265166.5356353382</v>
+        <v>316343.4407941472</v>
       </c>
     </row>
     <row r="7">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>206.4764687177515</v>
+        <v>247.6555778125562</v>
       </c>
       <c r="AB7" t="n">
-        <v>282.5102135984091</v>
+        <v>338.8532873559699</v>
       </c>
       <c r="AC7" t="n">
-        <v>255.5478353182349</v>
+        <v>306.5136051943928</v>
       </c>
       <c r="AD7" t="n">
-        <v>206476.4687177515</v>
+        <v>247655.5778125562</v>
       </c>
       <c r="AE7" t="n">
-        <v>282510.213598409</v>
+        <v>338853.28735597</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.741988448510239e-06</v>
+        <v>4.661198633402426e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.449845679012346</v>
       </c>
       <c r="AH7" t="n">
-        <v>255547.835318235</v>
+        <v>306513.6051943928</v>
       </c>
     </row>
     <row r="8">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>200.3266826289537</v>
+        <v>241.5057917237584</v>
       </c>
       <c r="AB8" t="n">
-        <v>274.0958049623059</v>
+        <v>330.4388787198669</v>
       </c>
       <c r="AC8" t="n">
-        <v>247.9364860326621</v>
+        <v>298.9022559088201</v>
       </c>
       <c r="AD8" t="n">
-        <v>200326.6826289537</v>
+        <v>241505.7917237584</v>
       </c>
       <c r="AE8" t="n">
-        <v>274095.8049623059</v>
+        <v>330438.8787198669</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.778251134571509e-06</v>
+        <v>4.722842796347068e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.349537037037038</v>
       </c>
       <c r="AH8" t="n">
-        <v>247936.4860326621</v>
+        <v>298902.2559088201</v>
       </c>
     </row>
     <row r="9">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>196.667626813967</v>
+        <v>237.8467359087717</v>
       </c>
       <c r="AB9" t="n">
-        <v>269.0893233700939</v>
+        <v>325.4323971276549</v>
       </c>
       <c r="AC9" t="n">
-        <v>243.4078160169682</v>
+        <v>294.3735858931262</v>
       </c>
       <c r="AD9" t="n">
-        <v>196667.626813967</v>
+        <v>237846.7359087717</v>
       </c>
       <c r="AE9" t="n">
-        <v>269089.3233700939</v>
+        <v>325432.3971276549</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.79778534063955e-06</v>
+        <v>4.756049652006299e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.299382716049384</v>
       </c>
       <c r="AH9" t="n">
-        <v>243407.8160169682</v>
+        <v>294373.5858931262</v>
       </c>
     </row>
     <row r="10">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>197.2542482011573</v>
+        <v>238.433357295962</v>
       </c>
       <c r="AB10" t="n">
-        <v>269.8919646319564</v>
+        <v>326.2350383895173</v>
       </c>
       <c r="AC10" t="n">
-        <v>244.1338543233129</v>
+        <v>295.0996241994708</v>
       </c>
       <c r="AD10" t="n">
-        <v>197254.2482011573</v>
+        <v>238433.357295962</v>
       </c>
       <c r="AE10" t="n">
-        <v>269891.9646319564</v>
+        <v>326235.0383895173</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.79730889658911e-06</v>
+        <v>4.755239728697537e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.299382716049384</v>
       </c>
       <c r="AH10" t="n">
-        <v>244133.8543233129</v>
+        <v>295099.6241994709</v>
       </c>
     </row>
   </sheetData>
@@ -11023,28 +11023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.6412683722249</v>
+        <v>303.6820001779981</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.7796614835063</v>
+        <v>415.5111101478374</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.397181510463</v>
+        <v>375.8553129688329</v>
       </c>
       <c r="AD2" t="n">
-        <v>255641.2683722249</v>
+        <v>303682.0001779981</v>
       </c>
       <c r="AE2" t="n">
-        <v>349779.6614835063</v>
+        <v>415511.1101478374</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.320738083835458e-06</v>
+        <v>4.184839944481971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.521604938271604</v>
       </c>
       <c r="AH2" t="n">
-        <v>316397.1815104631</v>
+        <v>375855.3129688329</v>
       </c>
     </row>
     <row r="3">
@@ -11129,28 +11129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.2630481215607</v>
+        <v>225.6956335661761</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.2215639024204</v>
+        <v>308.8067228337225</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.7681374528715</v>
+        <v>279.334642619521</v>
       </c>
       <c r="AD3" t="n">
-        <v>187263.0481215607</v>
+        <v>225695.6335661761</v>
       </c>
       <c r="AE3" t="n">
-        <v>256221.5639024204</v>
+        <v>308806.7228337225</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.811207481939373e-06</v>
+        <v>5.06927233391348e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.858796296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>231768.1374528715</v>
+        <v>279334.642619521</v>
       </c>
     </row>
     <row r="4">
@@ -11235,28 +11235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.6910033101403</v>
+        <v>208.9529965541636</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.5469610844283</v>
+        <v>285.8987082408835</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.2575669038165</v>
+        <v>258.6129367878149</v>
       </c>
       <c r="AD4" t="n">
-        <v>170691.0033101403</v>
+        <v>208952.9965541636</v>
       </c>
       <c r="AE4" t="n">
-        <v>233546.9610844283</v>
+        <v>285898.7082408835</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.991210438296287e-06</v>
+        <v>5.393860260114232e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.388117283950617</v>
       </c>
       <c r="AH4" t="n">
-        <v>211257.5669038165</v>
+        <v>258612.9367878149</v>
       </c>
     </row>
     <row r="5">
@@ -11341,28 +11341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.7223460174124</v>
+        <v>204.9843392614357</v>
       </c>
       <c r="AB5" t="n">
-        <v>228.1168690917178</v>
+        <v>280.4686162481731</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.3457152697066</v>
+        <v>253.701085153705</v>
       </c>
       <c r="AD5" t="n">
-        <v>166722.3460174124</v>
+        <v>204984.3392614357</v>
       </c>
       <c r="AE5" t="n">
-        <v>228116.8690917178</v>
+        <v>280468.6162481731</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.026546685217132e-06</v>
+        <v>5.457579875279954e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.299382716049384</v>
       </c>
       <c r="AH5" t="n">
-        <v>206345.7152697066</v>
+        <v>253701.085153705</v>
       </c>
     </row>
   </sheetData>
@@ -11638,28 +11638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.8905143557275</v>
+        <v>245.0637759985365</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.1307761716063</v>
+        <v>335.3070697718038</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.1589968318111</v>
+        <v>303.3058336393109</v>
       </c>
       <c r="AD2" t="n">
-        <v>198890.5143557275</v>
+        <v>245063.7759985365</v>
       </c>
       <c r="AE2" t="n">
-        <v>272130.7761716063</v>
+        <v>335307.0697718038</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.666271073779344e-06</v>
+        <v>4.974409569486276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.630401234567902</v>
       </c>
       <c r="AH2" t="n">
-        <v>246158.9968318111</v>
+        <v>303305.8336393109</v>
       </c>
     </row>
     <row r="3">
@@ -11744,28 +11744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.7881711701747</v>
+        <v>193.624460967487</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.5244928008709</v>
+        <v>264.9255296039401</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.0505762950338</v>
+        <v>239.6414088839336</v>
       </c>
       <c r="AD3" t="n">
-        <v>156788.1711701747</v>
+        <v>193624.460967487</v>
       </c>
       <c r="AE3" t="n">
-        <v>214524.4928008709</v>
+        <v>264925.5296039401</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.087631747578452e-06</v>
+        <v>5.760533901915999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.453703703703705</v>
       </c>
       <c r="AH3" t="n">
-        <v>194050.5762950338</v>
+        <v>239641.4088839336</v>
       </c>
     </row>
     <row r="4">
@@ -11850,28 +11850,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.8438330495333</v>
+        <v>191.6801228468455</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.8641636060666</v>
+        <v>262.2652004091359</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.6441451847854</v>
+        <v>237.2349777736852</v>
       </c>
       <c r="AD4" t="n">
-        <v>154843.8330495332</v>
+        <v>191680.1228468455</v>
       </c>
       <c r="AE4" t="n">
-        <v>211864.1636060666</v>
+        <v>262265.2004091359</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.110719186451488e-06</v>
+        <v>5.803607683120912e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.399691358024692</v>
       </c>
       <c r="AH4" t="n">
-        <v>191644.1451847854</v>
+        <v>237234.9777736852</v>
       </c>
     </row>
   </sheetData>
@@ -21208,28 +21208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.0786947524616</v>
+        <v>203.8607339924114</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.9726852688943</v>
+        <v>278.9312499491287</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.0244149555882</v>
+        <v>252.3104429365338</v>
       </c>
       <c r="AD2" t="n">
-        <v>168078.6947524616</v>
+        <v>203860.7339924113</v>
       </c>
       <c r="AE2" t="n">
-        <v>229972.6852688942</v>
+        <v>278931.2499491287</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.956356505062882e-06</v>
+        <v>5.685183191600944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.051697530864198</v>
       </c>
       <c r="AH2" t="n">
-        <v>208024.4149555882</v>
+        <v>252310.4429365338</v>
       </c>
     </row>
     <row r="3">
@@ -21314,28 +21314,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.2366355773883</v>
+        <v>181.1039261633586</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.7191721850452</v>
+        <v>247.7943815179289</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.7536932958706</v>
+        <v>224.1452335275285</v>
       </c>
       <c r="AD3" t="n">
-        <v>145236.6355773883</v>
+        <v>181103.9261633586</v>
       </c>
       <c r="AE3" t="n">
-        <v>198719.1721850452</v>
+        <v>247794.3815179289</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.168402031655014e-06</v>
+        <v>6.092954602650749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.515432098765432</v>
       </c>
       <c r="AH3" t="n">
-        <v>179753.6932958706</v>
+        <v>224145.2335275285</v>
       </c>
     </row>
   </sheetData>
@@ -21611,28 +21611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.8543383740333</v>
+        <v>170.3773540284228</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.2501433505672</v>
+        <v>233.1178122999528</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.3792524764685</v>
+        <v>210.8693754770171</v>
       </c>
       <c r="AD2" t="n">
-        <v>136854.3383740333</v>
+        <v>170377.3540284228</v>
       </c>
       <c r="AE2" t="n">
-        <v>187250.1433505671</v>
+        <v>233117.8122999528</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.134986229912173e-06</v>
+        <v>6.466220470298391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.152006172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>169379.2524764685</v>
+        <v>210869.3754770171</v>
       </c>
     </row>
   </sheetData>
@@ -21908,28 +21908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.175881094971</v>
+        <v>366.6417595998874</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.9740333264511</v>
+        <v>501.6554305774198</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.5561606721552</v>
+        <v>453.7781403609288</v>
       </c>
       <c r="AD2" t="n">
-        <v>317175.881094971</v>
+        <v>366641.7595998874</v>
       </c>
       <c r="AE2" t="n">
-        <v>433974.0333264511</v>
+        <v>501655.4305774198</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.041014330503208e-06</v>
+        <v>3.585981665218569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.47067901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>392556.1606721552</v>
+        <v>453778.1403609288</v>
       </c>
     </row>
     <row r="3">
@@ -22014,28 +22014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.5643211736211</v>
+        <v>266.1199737083529</v>
       </c>
       <c r="AB3" t="n">
-        <v>309.9952995420205</v>
+        <v>364.1170884124147</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.4097832349573</v>
+        <v>329.3662645358762</v>
       </c>
       <c r="AD3" t="n">
-        <v>226564.3211736211</v>
+        <v>266119.9737083528</v>
       </c>
       <c r="AE3" t="n">
-        <v>309995.2995420205</v>
+        <v>364117.0884124147</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.578604410227835e-06</v>
+        <v>4.530506228561841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.287037037037038</v>
       </c>
       <c r="AH3" t="n">
-        <v>280409.7832349573</v>
+        <v>329366.2645358762</v>
       </c>
     </row>
     <row r="4">
@@ -22120,28 +22120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.1118067210477</v>
+        <v>235.7527106017967</v>
       </c>
       <c r="AB4" t="n">
-        <v>268.3288257979102</v>
+        <v>322.5672593207765</v>
       </c>
       <c r="AC4" t="n">
-        <v>242.7198992657084</v>
+        <v>291.7818928172893</v>
       </c>
       <c r="AD4" t="n">
-        <v>196111.8067210477</v>
+        <v>235752.7106017967</v>
       </c>
       <c r="AE4" t="n">
-        <v>268328.8257979102</v>
+        <v>322567.2593207766</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.782838786729092e-06</v>
+        <v>4.88933797148267e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.681327160493827</v>
       </c>
       <c r="AH4" t="n">
-        <v>242719.8992657085</v>
+        <v>291781.8928172893</v>
       </c>
     </row>
     <row r="5">
@@ -22226,28 +22226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>185.5068966407095</v>
+        <v>224.9772083208663</v>
       </c>
       <c r="AB5" t="n">
-        <v>253.8187199703857</v>
+        <v>307.8237417184051</v>
       </c>
       <c r="AC5" t="n">
-        <v>229.5946175732968</v>
+        <v>278.4454758422265</v>
       </c>
       <c r="AD5" t="n">
-        <v>185506.8966407095</v>
+        <v>224977.2083208663</v>
       </c>
       <c r="AE5" t="n">
-        <v>253818.7199703857</v>
+        <v>307823.7417184052</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.879167395553526e-06</v>
+        <v>5.058583537237844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.422839506172839</v>
       </c>
       <c r="AH5" t="n">
-        <v>229594.6175732968</v>
+        <v>278445.4758422265</v>
       </c>
     </row>
     <row r="6">
@@ -22332,28 +22332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>178.4221799784436</v>
+        <v>217.8924916586004</v>
       </c>
       <c r="AB6" t="n">
-        <v>244.1250980774382</v>
+        <v>298.1301198254578</v>
       </c>
       <c r="AC6" t="n">
-        <v>220.8261413487254</v>
+        <v>269.6769996176552</v>
       </c>
       <c r="AD6" t="n">
-        <v>178422.1799784436</v>
+        <v>217892.4916586004</v>
       </c>
       <c r="AE6" t="n">
-        <v>244125.0980774382</v>
+        <v>298130.1198254577</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.931513879359788e-06</v>
+        <v>5.150554244333093e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>220826.1413487254</v>
+        <v>269676.9996176552</v>
       </c>
     </row>
     <row r="7">
@@ -22438,28 +22438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>179.0199598952593</v>
+        <v>218.4902715754162</v>
       </c>
       <c r="AB7" t="n">
-        <v>244.9430069318138</v>
+        <v>298.9480286798333</v>
       </c>
       <c r="AC7" t="n">
-        <v>221.5659901299819</v>
+        <v>270.4168483989117</v>
       </c>
       <c r="AD7" t="n">
-        <v>179019.9598952594</v>
+        <v>218490.2715754161</v>
       </c>
       <c r="AE7" t="n">
-        <v>244943.0069318138</v>
+        <v>298948.0286798333</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.930350624164093e-06</v>
+        <v>5.148510450842087e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>221565.9901299819</v>
+        <v>270416.8483989117</v>
       </c>
     </row>
   </sheetData>
@@ -22735,28 +22735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>411.0508450382688</v>
+        <v>482.6855107360345</v>
       </c>
       <c r="AB2" t="n">
-        <v>562.4179004647899</v>
+        <v>660.4316103708809</v>
       </c>
       <c r="AC2" t="n">
-        <v>508.7415254029106</v>
+        <v>597.4009443986699</v>
       </c>
       <c r="AD2" t="n">
-        <v>411050.8450382688</v>
+        <v>482685.5107360345</v>
       </c>
       <c r="AE2" t="n">
-        <v>562417.9004647899</v>
+        <v>660431.6103708809</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.723273374630219e-06</v>
+        <v>2.946605424904667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.95216049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>508741.5254029106</v>
+        <v>597400.94439867</v>
       </c>
     </row>
     <row r="3">
@@ -22841,28 +22841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>267.1493933302174</v>
+        <v>318.3535863377236</v>
       </c>
       <c r="AB3" t="n">
-        <v>365.5255857538383</v>
+        <v>435.5854215962736</v>
       </c>
       <c r="AC3" t="n">
-        <v>330.6403368678729</v>
+        <v>394.0137603071034</v>
       </c>
       <c r="AD3" t="n">
-        <v>267149.3933302175</v>
+        <v>318353.5863377236</v>
       </c>
       <c r="AE3" t="n">
-        <v>365525.5857538383</v>
+        <v>435585.4215962737</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.314707800070154e-06</v>
+        <v>3.95789238153779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.896604938271604</v>
       </c>
       <c r="AH3" t="n">
-        <v>330640.3368678729</v>
+        <v>394013.7603071034</v>
       </c>
     </row>
     <row r="4">
@@ -22947,28 +22947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>240.3857335369039</v>
+        <v>281.3321092805485</v>
       </c>
       <c r="AB4" t="n">
-        <v>328.9063656951336</v>
+        <v>384.9310034143496</v>
       </c>
       <c r="AC4" t="n">
-        <v>297.5160037762713</v>
+        <v>348.1937287025397</v>
       </c>
       <c r="AD4" t="n">
-        <v>240385.7335369039</v>
+        <v>281332.1092805485</v>
       </c>
       <c r="AE4" t="n">
-        <v>328906.3656951336</v>
+        <v>384931.0034143496</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.535107867095559e-06</v>
+        <v>4.33475193423979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>297516.0037762713</v>
+        <v>348193.7287025397</v>
       </c>
     </row>
     <row r="5">
@@ -23053,28 +23053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>216.2129243612438</v>
+        <v>257.2445514509055</v>
       </c>
       <c r="AB5" t="n">
-        <v>295.8320617519358</v>
+        <v>351.9733441236135</v>
       </c>
       <c r="AC5" t="n">
-        <v>267.5982649813248</v>
+        <v>318.381502158252</v>
       </c>
       <c r="AD5" t="n">
-        <v>216212.9243612438</v>
+        <v>257244.5514509055</v>
       </c>
       <c r="AE5" t="n">
-        <v>295832.0617519359</v>
+        <v>351973.3441236134</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.658946122241827e-06</v>
+        <v>4.546501549708098e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.746913580246913</v>
       </c>
       <c r="AH5" t="n">
-        <v>267598.2649813248</v>
+        <v>318381.5021582521</v>
       </c>
     </row>
     <row r="6">
@@ -23159,28 +23159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>206.9161403482942</v>
+        <v>247.9477674379559</v>
       </c>
       <c r="AB6" t="n">
-        <v>283.1117917202606</v>
+        <v>339.2530740919382</v>
       </c>
       <c r="AC6" t="n">
-        <v>256.0919996684575</v>
+        <v>306.8752368453846</v>
       </c>
       <c r="AD6" t="n">
-        <v>206916.1403482942</v>
+        <v>247947.7674379559</v>
       </c>
       <c r="AE6" t="n">
-        <v>283111.7917202606</v>
+        <v>339253.0740919381</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.731861232815017e-06</v>
+        <v>4.67117826295366e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.538580246913579</v>
       </c>
       <c r="AH6" t="n">
-        <v>256091.9996684575</v>
+        <v>306875.2368453846</v>
       </c>
     </row>
     <row r="7">
@@ -23265,28 +23265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>199.7222512216902</v>
+        <v>240.5832861107597</v>
       </c>
       <c r="AB7" t="n">
-        <v>273.2687952452567</v>
+        <v>329.1766658420873</v>
       </c>
       <c r="AC7" t="n">
-        <v>247.1884049622925</v>
+        <v>297.7605068565686</v>
       </c>
       <c r="AD7" t="n">
-        <v>199722.2512216902</v>
+        <v>240583.2861107597</v>
       </c>
       <c r="AE7" t="n">
-        <v>273268.7952452567</v>
+        <v>329176.6658420874</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.785133033951213e-06</v>
+        <v>4.762267106159424e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.395833333333335</v>
       </c>
       <c r="AH7" t="n">
-        <v>247188.4049622925</v>
+        <v>297760.5068565686</v>
       </c>
     </row>
     <row r="8">
@@ -23371,28 +23371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>193.1669583042704</v>
+        <v>234.0279931933399</v>
       </c>
       <c r="AB8" t="n">
-        <v>264.2995542765345</v>
+        <v>320.2074248733652</v>
       </c>
       <c r="AC8" t="n">
-        <v>239.0751757632135</v>
+        <v>289.6472776574897</v>
       </c>
       <c r="AD8" t="n">
-        <v>193166.9583042704</v>
+        <v>234027.9931933399</v>
       </c>
       <c r="AE8" t="n">
-        <v>264299.5542765345</v>
+        <v>320207.4248733652</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.822871674635873e-06</v>
+        <v>4.826795976045671e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.295524691358025</v>
       </c>
       <c r="AH8" t="n">
-        <v>239075.1757632135</v>
+        <v>289647.2776574897</v>
       </c>
     </row>
     <row r="9">
@@ -23477,28 +23477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>193.9370327519523</v>
+        <v>234.7980676410217</v>
       </c>
       <c r="AB9" t="n">
-        <v>265.3532041091393</v>
+        <v>321.2610747059699</v>
       </c>
       <c r="AC9" t="n">
-        <v>240.0282667346016</v>
+        <v>290.6003686288778</v>
       </c>
       <c r="AD9" t="n">
-        <v>193937.0327519523</v>
+        <v>234798.0676410217</v>
       </c>
       <c r="AE9" t="n">
-        <v>265353.2041091393</v>
+        <v>321261.0747059699</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.818281118626141e-06</v>
+        <v>4.818946636851587e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.3070987654321</v>
       </c>
       <c r="AH9" t="n">
-        <v>240028.2667346016</v>
+        <v>290600.3686288778</v>
       </c>
     </row>
   </sheetData>
@@ -23774,28 +23774,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.3462555466503</v>
+        <v>169.9505570258144</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.9772531929098</v>
+        <v>232.5338498120294</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.0867925373628</v>
+        <v>210.3411455493444</v>
       </c>
       <c r="AD2" t="n">
-        <v>129346.2555466503</v>
+        <v>169950.5570258144</v>
       </c>
       <c r="AE2" t="n">
-        <v>176977.2531929098</v>
+        <v>232533.8498120295</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.973440863703699e-06</v>
+        <v>6.373453309416443e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.900462962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>160086.7925373628</v>
+        <v>210341.1455493444</v>
       </c>
     </row>
   </sheetData>
@@ -24071,28 +24071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.77823754792</v>
+        <v>261.584116568748</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.8690599600322</v>
+        <v>357.9109285661132</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.8226093253494</v>
+        <v>323.7524118749059</v>
       </c>
       <c r="AD2" t="n">
-        <v>214778.23754792</v>
+        <v>261584.116568748</v>
       </c>
       <c r="AE2" t="n">
-        <v>293869.0599600322</v>
+        <v>357910.9285661132</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.537286112640924e-06</v>
+        <v>4.674778484797259e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.939043209876544</v>
       </c>
       <c r="AH2" t="n">
-        <v>265822.6093253494</v>
+        <v>323752.4118749059</v>
       </c>
     </row>
     <row r="3">
@@ -24177,28 +24177,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.7426096446639</v>
+        <v>204.255585544981</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.1445946804914</v>
+        <v>279.4715032629753</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.3707947672007</v>
+        <v>252.7991352323573</v>
       </c>
       <c r="AD3" t="n">
-        <v>166742.6096446639</v>
+        <v>204255.585544981</v>
       </c>
       <c r="AE3" t="n">
-        <v>228144.5946804914</v>
+        <v>279471.5032629753</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.993127551876738e-06</v>
+        <v>5.514635583293968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.577160493827161</v>
       </c>
       <c r="AH3" t="n">
-        <v>206370.7947672007</v>
+        <v>252799.1352323573</v>
       </c>
     </row>
     <row r="4">
@@ -24283,28 +24283,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.6446928376626</v>
+        <v>195.9870765373875</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.0646676502821</v>
+        <v>268.1581644579191</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.3483204219758</v>
+        <v>242.5655256044813</v>
       </c>
       <c r="AD4" t="n">
-        <v>158644.6928376626</v>
+        <v>195987.0765373875</v>
       </c>
       <c r="AE4" t="n">
-        <v>217064.6676502821</v>
+        <v>268158.1644579191</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.085659719191307e-06</v>
+        <v>5.68511985889802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.349537037037038</v>
       </c>
       <c r="AH4" t="n">
-        <v>196348.3204219758</v>
+        <v>242565.5256044813</v>
       </c>
     </row>
     <row r="5">
@@ -24389,28 +24389,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.2481508382839</v>
+        <v>196.5905345380088</v>
       </c>
       <c r="AB5" t="n">
-        <v>217.8903455094197</v>
+        <v>268.9838423170567</v>
       </c>
       <c r="AC5" t="n">
-        <v>197.0951967450838</v>
+        <v>243.3124019275893</v>
       </c>
       <c r="AD5" t="n">
-        <v>159248.1508382839</v>
+        <v>196590.5345380088</v>
       </c>
       <c r="AE5" t="n">
-        <v>217890.3455094197</v>
+        <v>268983.8423170567</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.085600931283229e-06</v>
+        <v>5.685011546143507e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.349537037037038</v>
       </c>
       <c r="AH5" t="n">
-        <v>197095.1967450838</v>
+        <v>243312.4019275893</v>
       </c>
     </row>
   </sheetData>
@@ -24686,28 +24686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.5506863726306</v>
+        <v>321.1195075771424</v>
       </c>
       <c r="AB2" t="n">
-        <v>372.9158731826995</v>
+        <v>439.3698770598795</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.3253056368571</v>
+        <v>397.4370326527794</v>
       </c>
       <c r="AD2" t="n">
-        <v>272550.6863726306</v>
+        <v>321119.5075771424</v>
       </c>
       <c r="AE2" t="n">
-        <v>372915.8731826995</v>
+        <v>439369.8770598795</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.218895861633143e-06</v>
+        <v>3.963895525602854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.841820987654323</v>
       </c>
       <c r="AH2" t="n">
-        <v>337325.3056368571</v>
+        <v>397437.0326527794</v>
       </c>
     </row>
     <row r="3">
@@ -24792,28 +24792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.9175188961117</v>
+        <v>245.6873245137001</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.1136779102018</v>
+        <v>336.1602363592692</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.0937058430778</v>
+        <v>304.0775752050956</v>
       </c>
       <c r="AD3" t="n">
-        <v>206917.5188961117</v>
+        <v>245687.3245137001</v>
       </c>
       <c r="AE3" t="n">
-        <v>283113.6779102018</v>
+        <v>336160.2363592692</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.72897645508359e-06</v>
+        <v>4.875117280997414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.001543209876543</v>
       </c>
       <c r="AH3" t="n">
-        <v>256093.7058430779</v>
+        <v>304077.5752050956</v>
       </c>
     </row>
     <row r="4">
@@ -24898,28 +24898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.7461880561754</v>
+        <v>218.4306528191923</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.936664340504</v>
+        <v>298.8664556673738</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.464814270194</v>
+        <v>270.3430606002729</v>
       </c>
       <c r="AD4" t="n">
-        <v>179746.1880561755</v>
+        <v>218430.6528191923</v>
       </c>
       <c r="AE4" t="n">
-        <v>245936.664340504</v>
+        <v>298866.4556673738</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.914341961469544e-06</v>
+        <v>5.206259230499985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.492283950617284</v>
       </c>
       <c r="AH4" t="n">
-        <v>222464.814270194</v>
+        <v>270343.0606002729</v>
       </c>
     </row>
     <row r="5">
@@ -25004,28 +25004,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.6213033367389</v>
+        <v>209.3057680997557</v>
       </c>
       <c r="AB5" t="n">
-        <v>233.4515945058747</v>
+        <v>286.3813858327446</v>
       </c>
       <c r="AC5" t="n">
-        <v>211.1713019776722</v>
+        <v>259.0495483077511</v>
       </c>
       <c r="AD5" t="n">
-        <v>170621.3033367389</v>
+        <v>209305.7680997557</v>
       </c>
       <c r="AE5" t="n">
-        <v>233451.5945058747</v>
+        <v>286381.3858327446</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.992902976084415e-06</v>
+        <v>5.346602749861686e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.295524691358025</v>
       </c>
       <c r="AH5" t="n">
-        <v>211171.3019776721</v>
+        <v>259049.5483077511</v>
       </c>
     </row>
     <row r="6">
@@ -25110,28 +25110,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>171.1186633991757</v>
+        <v>209.8031281621925</v>
       </c>
       <c r="AB6" t="n">
-        <v>234.1321044852778</v>
+        <v>287.0618958121477</v>
       </c>
       <c r="AC6" t="n">
-        <v>211.786865039743</v>
+        <v>259.6651113698219</v>
       </c>
       <c r="AD6" t="n">
-        <v>171118.6633991757</v>
+        <v>209803.1281621925</v>
       </c>
       <c r="AE6" t="n">
-        <v>234132.1044852778</v>
+        <v>287061.8958121476</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.993242577012145e-06</v>
+        <v>5.347209422135584e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.295524691358025</v>
       </c>
       <c r="AH6" t="n">
-        <v>211786.865039743</v>
+        <v>259665.1113698219</v>
       </c>
     </row>
   </sheetData>
